--- a/diary/2017-3-2(L).xlsx
+++ b/diary/2017-3-2(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>P</t>
   </si>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶葉蛋*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -516,57 +520,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>25.4</v>
+      </c>
+      <c r="C3">
+        <v>3.8</v>
+      </c>
+      <c r="D3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>13.6</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>6.4</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>13.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>69</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="5"/>
@@ -575,34 +579,48 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7" s="6">
-        <v>23.7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>14.5</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23.7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -612,15 +630,15 @@
       </c>
       <c r="B15">
         <f>SUM(B2:B11)</f>
-        <v>216.8</v>
+        <v>242.2</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C11)</f>
-        <v>68.900000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="D15">
-        <f>SUM(D2:D9)</f>
-        <v>82.3</v>
+        <f>SUM(D2:D10)</f>
+        <v>98.9</v>
       </c>
     </row>
   </sheetData>
